--- a/Alcohol.xlsx
+++ b/Alcohol.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0A77DB-59B4-47D3-BEFF-828DF3EE8368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -154,18 +163,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d m"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -176,39 +183,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -398,20 +410,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,9 +445,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -445,9 +462,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -462,9 +479,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -473,15 +490,15 @@
         <v>28.5</v>
       </c>
       <c r="D4" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -490,15 +507,15 @@
         <v>17.5</v>
       </c>
       <c r="D5" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -513,9 +530,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -527,12 +544,12 @@
         <v>2.7</v>
       </c>
       <c r="E7" s="1">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -547,9 +564,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -564,9 +581,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -575,15 +592,15 @@
         <v>23.8</v>
       </c>
       <c r="D10" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E10" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -598,9 +615,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -612,29 +629,29 @@
         <v>3.6</v>
       </c>
       <c r="E12" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -643,15 +660,15 @@
         <v>8.1</v>
       </c>
       <c r="D14" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -663,12 +680,12 @@
         <v>3.8</v>
       </c>
       <c r="E15" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -677,21 +694,21 @@
         <v>7.8</v>
       </c>
       <c r="D16" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D17" s="1">
         <v>13.7</v>
@@ -700,9 +717,9 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
@@ -717,15 +734,15 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D19" s="1">
         <v>1.3</v>
@@ -734,9 +751,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -751,9 +768,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -765,18 +782,18 @@
         <v>0.4</v>
       </c>
       <c r="E21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D22" s="1">
         <v>2.1</v>
@@ -785,9 +802,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -802,9 +819,9 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
@@ -813,15 +830,15 @@
         <v>17.7</v>
       </c>
       <c r="D24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
@@ -836,9 +853,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
@@ -850,12 +867,12 @@
         <v>3.3</v>
       </c>
       <c r="E26" s="1">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -867,12 +884,12 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
@@ -887,9 +904,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>32</v>
@@ -904,9 +921,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
@@ -921,15 +938,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="2">
-        <v>45042.0</v>
+        <v>26.4</v>
       </c>
       <c r="D31" s="1">
         <v>3.4</v>
@@ -938,9 +955,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
@@ -949,15 +966,15 @@
         <v>0.2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -972,9 +989,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -983,15 +1000,15 @@
         <v>14.2</v>
       </c>
       <c r="D34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
         <v>5.4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -1000,15 +1017,15 @@
         <v>9.5</v>
       </c>
       <c r="D35" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E35" s="1">
         <v>5.3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -1020,12 +1037,12 @@
         <v>7.1</v>
       </c>
       <c r="E36" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
@@ -1040,7 +1057,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1054,192 +1071,192 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>27.6</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>3.2</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>10.3</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>8.4</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>5.4</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>5.3</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>5.2</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>